--- a/benchmarking_progress.xlsx
+++ b/benchmarking_progress.xlsx
@@ -8,25 +8,89 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552154C6-2F35-4B2D-B757-6ED4C065A907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A82C18-6CBF-4B1B-BE9F-DDD0CDAA27F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="450" windowWidth="21945" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1440" windowWidth="15000" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SBS_down_samp" sheetId="1" r:id="rId1"/>
     <sheet name="indel_down_samp" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A1CE78B5-9DF1-4968-B7D0-A71C55FBB491}</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{A1CE78B5-9DF1-4968-B7D0-A71C55FBB491}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    Running on monster2</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6E6D9F0A-B5DA-4B73-B14C-831655C72B6E}</author>
+    <author>tc={6952DBC2-D2FB-4011-BDCF-30BF10CB5F2A}</author>
+    <author>tc={449C874C-BE33-429C-9820-309BE9010AC0}</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{6E6D9F0A-B5DA-4B73-B14C-831655C72B6E}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    Ignore 500, 1k, 10k right now</t>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{6952DBC2-D2FB-4011-BDCF-30BF10CB5F2A}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    Running on new HPC cluster</t>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="2" shapeId="0" xr:uid="{449C874C-BE33-429C-9820-309BE9010AC0}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    Running on monster2</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -94,14 +158,17 @@
     <t>10.1101/2022.01.31.478587v1</t>
   </si>
   <si>
-    <t>** Green - running; Red - failed; White - not running;</t>
+    <t>hdp-NR-</t>
+  </si>
+  <si>
+    <t>** Filling colors: Green - running; Red - failed; White - not running;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +192,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -162,9 +250,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -177,13 +262,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -201,6 +298,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Wu Yang" id="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" userId="Wu Yang" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,15 +567,37 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F3" dT="2022-06-23T10:45:35.89" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{A1CE78B5-9DF1-4968-B7D0-A71C55FBB491}">
+    <text>Running on monster2</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H2" dT="2022-06-23T07:17:23.70" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{6E6D9F0A-B5DA-4B73-B14C-831655C72B6E}">
+    <text>Ignore 500, 1k, 10k right now</text>
+  </threadedComment>
+  <threadedComment ref="D3" dT="2022-06-25T23:15:02.23" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{6952DBC2-D2FB-4011-BDCF-30BF10CB5F2A}">
+    <text>Running on new HPC cluster</text>
+  </threadedComment>
+  <threadedComment ref="D4" dT="2022-06-23T10:45:19.33" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{449C874C-BE33-429C-9820-309BE9010AC0}">
+    <text>Running on monster2</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,19 +614,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -513,22 +638,22 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -540,7 +665,7 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2022</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -549,25 +674,25 @@
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8">
         <v>3</v>
       </c>
-      <c r="E3" s="10">
+      <c r="G3" s="8">
         <v>3</v>
       </c>
-      <c r="F3" s="10">
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -575,7 +700,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2022</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -584,86 +709,88 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>5</v>
+      </c>
+      <c r="H4" s="9">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -675,18 +802,19 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCBB4E0-5F89-431B-A9E8-4B03CB92E69C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCBB4E0-5F89-431B-A9E8-4B03CB92E69C}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,19 +831,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -733,16 +861,16 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -754,7 +882,7 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2022</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -763,15 +891,25 @@
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4" t="s">
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -779,7 +917,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2022</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -788,86 +926,86 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>5</v>
+      </c>
+      <c r="H4" s="9">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -879,5 +1017,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/benchmarking_progress.xlsx
+++ b/benchmarking_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A82C18-6CBF-4B1B-BE9F-DDD0CDAA27F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5B7A52-60E2-4AC4-B998-F114FAAD4AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1440" windowWidth="15000" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="930" windowWidth="21120" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SBS_down_samp" sheetId="1" r:id="rId1"/>
@@ -36,24 +36,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={A1CE78B5-9DF1-4968-B7D0-A71C55FBB491}</author>
-  </authors>
-  <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{A1CE78B5-9DF1-4968-B7D0-A71C55FBB491}">
-      <text>
-        <t>[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
-注释:
-    Running on monster2</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={6E6D9F0A-B5DA-4B73-B14C-831655C72B6E}</author>
@@ -90,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -131,9 +113,6 @@
     <t>Down-sampling threshold</t>
   </si>
   <si>
-    <t>* Numbers indicate how many runs out of 5 schedule runs have been finished. Each run uses a different random seed</t>
-  </si>
-  <si>
     <t>Version used</t>
   </si>
   <si>
@@ -161,14 +140,35 @@
     <t>hdp-NR-</t>
   </si>
   <si>
-    <t>** Filling colors: Green - running; Red - failed; White - not running;</t>
+    <t>Random seed</t>
+  </si>
+  <si>
+    <t>m2+hpc</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>hpc</t>
+  </si>
+  <si>
+    <t>1) Numbers indicate how many runs out of 5 schedule runs have been finished. Each run uses a different random seed</t>
+  </si>
+  <si>
+    <t>2) Filling colors: Green - running; Red - failed; White - not running;</t>
+  </si>
+  <si>
+    <t>3) Texts in each cell: m2/omitted - monster2; hpc - new HPC cluster; m2+hpc - finished on both monster2 and new HPC cluster</t>
+  </si>
+  <si>
+    <t>3) All mSigHdp runs are finished on new HPC cluster; all SigProfilerExtractor runs are finished on monster2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +203,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -569,14 +575,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F3" dT="2022-06-23T10:45:35.89" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{A1CE78B5-9DF1-4968-B7D0-A71C55FBB491}">
-    <text>Running on monster2</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="H2" dT="2022-06-23T07:17:23.70" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{6E6D9F0A-B5DA-4B73-B14C-831655C72B6E}">
     <text>Ignore 500, 1k, 10k right now</text>
   </threadedComment>
@@ -590,14 +588,408 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
+        <v>145879</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>200437</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>310111</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>528401</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>1076753</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>145879</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>200437</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>310111</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <v>528401</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>1076753</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A17:J17"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCBB4E0-5F89-431B-A9E8-4B03CB92E69C}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,22 +1028,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>500</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>0</v>
@@ -660,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -672,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9">
         <v>5</v>
@@ -680,23 +1072,23 @@
       <c r="E3" s="9">
         <v>5</v>
       </c>
-      <c r="F3" s="8">
-        <v>3</v>
-      </c>
-      <c r="G3" s="8">
-        <v>3</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
+      <c r="F3" s="9">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9">
+        <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -707,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="9">
         <v>5</v>
@@ -728,17 +1120,15 @@
         <v>2</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -764,7 +1154,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -779,7 +1169,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -792,220 +1182,10 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A7:I7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCBB4E0-5F89-431B-A9E8-4B03CB92E69C}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="7" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1">
-        <v>500</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9">
-        <v>5</v>
-      </c>
-      <c r="E3" s="9">
-        <v>5</v>
-      </c>
-      <c r="F3" s="9">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9">
-        <v>5</v>
-      </c>
-      <c r="H3" s="9">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="9">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9">
-        <v>5</v>
-      </c>
-      <c r="F4" s="9">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9">
-        <v>5</v>
-      </c>
-      <c r="H4" s="9">
-        <v>5</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/benchmarking_progress.xlsx
+++ b/benchmarking_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5B7A52-60E2-4AC4-B998-F114FAAD4AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7AB49C-E4B1-4657-87BC-74F5B638AAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="930" windowWidth="21120" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1425" windowWidth="21120" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SBS_down_samp" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -158,10 +158,10 @@
     <t>2) Filling colors: Green - running; Red - failed; White - not running;</t>
   </si>
   <si>
-    <t>3) Texts in each cell: m2/omitted - monster2; hpc - new HPC cluster; m2+hpc - finished on both monster2 and new HPC cluster</t>
-  </si>
-  <si>
     <t>3) All mSigHdp runs are finished on new HPC cluster; all SigProfilerExtractor runs are finished on monster2</t>
+  </si>
+  <si>
+    <t>3) Texts in each cell: m2 - monster2; hpc - new HPC cluster; m2+hpc - finished on both monster2 and new HPC cluster</t>
   </si>
 </sst>
 </file>
@@ -247,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -287,6 +287,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -595,7 +598,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E9" sqref="E9:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +779,9 @@
       <c r="H6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="4"/>
       <c r="L6" s="2"/>
@@ -831,11 +836,13 @@
       <c r="D9" s="2">
         <v>145879</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="E9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="3" t="s">
         <v>2</v>
       </c>
@@ -853,11 +860,11 @@
       <c r="D10" s="2">
         <v>200437</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="3"/>
       <c r="K10" s="5"/>
       <c r="L10" s="6"/>
@@ -869,11 +876,11 @@
       <c r="D11" s="2">
         <v>310111</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
       <c r="L11" s="6"/>
@@ -882,11 +889,11 @@
       <c r="D12" s="2">
         <v>528401</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
@@ -894,11 +901,11 @@
       <c r="D13" s="2">
         <v>1076753</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
@@ -964,13 +971,14 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A17:J17"/>
+    <mergeCell ref="E9:I13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -989,7 +997,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1192,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarking_progress.xlsx
+++ b/benchmarking_progress.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7AB49C-E4B1-4657-87BC-74F5B638AAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4910AC3C-ACB8-4AB5-AFA6-89161DADE456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1425" windowWidth="21120" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="915" windowWidth="21120" windowHeight="13860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SBS_down_samp" sheetId="1" r:id="rId1"/>
-    <sheet name="indel_down_samp" sheetId="4" r:id="rId2"/>
+    <sheet name="SBS" sheetId="5" r:id="rId1"/>
+    <sheet name="indel" sheetId="6" r:id="rId2"/>
+    <sheet name="SBS_down_samp" sheetId="1" r:id="rId3"/>
+    <sheet name="indel_down_samp" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,20 +40,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={6E6D9F0A-B5DA-4B73-B14C-831655C72B6E}</author>
     <author>tc={6952DBC2-D2FB-4011-BDCF-30BF10CB5F2A}</author>
     <author>tc={449C874C-BE33-429C-9820-309BE9010AC0}</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{6E6D9F0A-B5DA-4B73-B14C-831655C72B6E}">
-      <text>
-        <t>[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
-注释:
-    Ignore 500, 1k, 10k right now</t>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{6952DBC2-D2FB-4011-BDCF-30BF10CB5F2A}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{6952DBC2-D2FB-4011-BDCF-30BF10CB5F2A}">
       <text>
         <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
@@ -59,7 +52,7 @@
     Running on new HPC cluster</t>
       </text>
     </comment>
-    <comment ref="D4" authorId="2" shapeId="0" xr:uid="{449C874C-BE33-429C-9820-309BE9010AC0}">
+    <comment ref="D4" authorId="1" shapeId="0" xr:uid="{449C874C-BE33-429C-9820-309BE9010AC0}">
       <text>
         <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="35">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -155,20 +148,35 @@
     <t>1) Numbers indicate how many runs out of 5 schedule runs have been finished. Each run uses a different random seed</t>
   </si>
   <si>
-    <t>2) Filling colors: Green - running; Red - failed; White - not running;</t>
-  </si>
-  <si>
     <t>3) All mSigHdp runs are finished on new HPC cluster; all SigProfilerExtractor runs are finished on monster2</t>
   </si>
   <si>
     <t>3) Texts in each cell: m2 - monster2; hpc - new HPC cluster; m2+hpc - finished on both monster2 and new HPC cluster</t>
+  </si>
+  <si>
+    <t>2) Filling colors: Blue - Finished; Green - running; Red - failed; White - not running;</t>
+  </si>
+  <si>
+    <t>SignatureAnalyzer</t>
+  </si>
+  <si>
+    <t>signeR</t>
+  </si>
+  <si>
+    <t>hdp-NR()</t>
+  </si>
+  <si>
+    <t>1) Filling colors: Blue - Finished; Green - running; Red - failed; Violet - Finished with summary; White - not started;</t>
+  </si>
+  <si>
+    <t>Runs on Realistic with specified seed number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +221,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -223,13 +238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -270,16 +285,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -288,7 +306,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,9 +599,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H2" dT="2022-06-23T07:17:23.70" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{6E6D9F0A-B5DA-4B73-B14C-831655C72B6E}">
-    <text>Ignore 500, 1k, 10k right now</text>
-  </threadedComment>
   <threadedComment ref="D3" dT="2022-06-25T23:15:02.23" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{6952DBC2-D2FB-4011-BDCF-30BF10CB5F2A}">
     <text>Running on new HPC cluster</text>
   </threadedComment>
@@ -591,6 +609,473 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDDA077-72E5-435A-BABA-F8FEAAA77040}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>145879</v>
+      </c>
+      <c r="E2" s="1">
+        <v>200437</v>
+      </c>
+      <c r="F2" s="1">
+        <v>310111</v>
+      </c>
+      <c r="G2" s="1">
+        <v>528401</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1076753</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A10:I10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{29C495DF-0E48-47E6-A78E-02B4057171D5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04EE0E6-428D-4109-BBB3-725C08EC29DD}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>145879</v>
+      </c>
+      <c r="E2" s="1">
+        <v>200437</v>
+      </c>
+      <c r="F2" s="1">
+        <v>310111</v>
+      </c>
+      <c r="G2" s="1">
+        <v>528401</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1076753</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:H1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{99DD694E-1C24-4EB5-ABB8-D3FC017C506B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -598,7 +1083,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:I13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,13 +1105,13 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -644,19 +1129,19 @@
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -683,19 +1168,19 @@
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="E3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -715,19 +1200,19 @@
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="E4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="3"/>
@@ -741,19 +1226,19 @@
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="3"/>
@@ -767,19 +1252,19 @@
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="E6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="3"/>
@@ -793,19 +1278,21 @@
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="E7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
       <c r="L7" s="2"/>
@@ -836,13 +1323,15 @@
       <c r="D9" s="2">
         <v>145879</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="E9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="J9" s="3" t="s">
         <v>2</v>
       </c>
@@ -860,11 +1349,11 @@
       <c r="D10" s="2">
         <v>200437</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="3"/>
       <c r="K10" s="5"/>
       <c r="L10" s="6"/>
@@ -876,11 +1365,11 @@
       <c r="D11" s="2">
         <v>310111</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
       <c r="L11" s="6"/>
@@ -889,11 +1378,11 @@
       <c r="D12" s="2">
         <v>528401</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
@@ -901,11 +1390,11 @@
       <c r="D13" s="2">
         <v>1076753</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
@@ -942,22 +1431,22 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -971,14 +1460,15 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A17:J17"/>
-    <mergeCell ref="E9:I13"/>
+    <mergeCell ref="E9:H13"/>
+    <mergeCell ref="I9:I13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -989,7 +1479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCBB4E0-5F89-431B-A9E8-4B03CB92E69C}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -997,7 +1487,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D3" sqref="D3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,13 +1507,13 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -1044,10 +1534,10 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1074,19 +1564,19 @@
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="11">
         <v>5</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="11">
         <v>5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="11">
         <v>5</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="11">
         <v>5</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="11">
         <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1109,19 +1599,19 @@
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
         <v>5</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="11">
         <v>5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="11">
         <v>5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="11">
         <v>5</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="11">
         <v>5</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -1161,23 +1651,23 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1192,7 +1682,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
